--- a/aws_coords_2017.xlsx
+++ b/aws_coords_2017.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amber/GitHub/Antarctica-Weather-Station-Intercative-Map-master/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Desktop\Antarctica-Weather-Station-Intercative-Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="460" windowWidth="23140" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="10485" yWindow="465" windowWidth="23145" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2017_all" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="321">
   <si>
     <t>gid</t>
   </si>
@@ -940,13 +937,64 @@
   </si>
   <si>
     <t>kth</t>
+  </si>
+  <si>
+    <t>https://amrc.ssec.wisc.edu/</t>
+  </si>
+  <si>
+    <t>http://www.pnra.it/it</t>
+  </si>
+  <si>
+    <t>UW Soil Science</t>
+  </si>
+  <si>
+    <t>https://www.projects.science.uu.nl/iceclimate/aws/antarctica.php</t>
+  </si>
+  <si>
+    <t>http://www.kopri.re.kr/exclude/userIndex/engIndex.do</t>
+  </si>
+  <si>
+    <t>http://www.public.navy.mil/spawar/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>http://antartica.cptec.inpe.br/</t>
+  </si>
+  <si>
+    <t>http://www.antarcticanz.govt.nz/</t>
+  </si>
+  <si>
+    <t>https://www.bas.ac.uk/</t>
+  </si>
+  <si>
+    <t>http://www.antarctica.gov.au/</t>
+  </si>
+  <si>
+    <t>http://www.chinare.gov.cn/en/</t>
+  </si>
+  <si>
+    <t>http://www.institut-polaire.fr/language/en/</t>
+  </si>
+  <si>
+    <t>http://www.nipr.ac.jp/</t>
+  </si>
+  <si>
+    <t>http://www.aari.ru/index_en.html</t>
+  </si>
+  <si>
+    <t>http://www.awi.de/en.html</t>
+  </si>
+  <si>
+    <t>http://www.npolar.no/en/</t>
+  </si>
+  <si>
+    <t>Website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -963,6 +1011,14 @@
       <sz val="12"/>
       <color rgb="FF3D3D3D"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -983,16 +1039,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1000,6 +1059,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1268,18 +1330,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1295,1453 +1357,1609 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>-82.01</v>
+        <v>-65.867000000000004</v>
       </c>
       <c r="E2">
-        <v>96.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113.06694400000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>-73.58</v>
+        <v>-66.286100000000005</v>
       </c>
       <c r="E3">
-        <v>166.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110.7633</v>
+      </c>
+      <c r="F3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>676</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>-79.012</v>
+        <v>-66.581900000000005</v>
       </c>
       <c r="E4">
-        <v>170.72300000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110.693889</v>
+      </c>
+      <c r="F4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>-64.766666999999998</v>
+        <v>-66.853279000000001</v>
       </c>
       <c r="E5">
-        <v>-64.066666999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112.744444</v>
+      </c>
+      <c r="F5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>-76.72</v>
+        <v>-66.729600000000005</v>
       </c>
       <c r="E6">
-        <v>162.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112.8348</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>623</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>-75.995000000000005</v>
+        <v>-69.131299999999996</v>
       </c>
       <c r="E7">
-        <v>-87.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85.999200000000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>-68.143000000000001</v>
+        <v>-66.55</v>
       </c>
       <c r="E8">
-        <v>-63.957000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107.75</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>463</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>-67.021000000000001</v>
+        <v>-68.469200000000001</v>
       </c>
       <c r="E9">
-        <v>-61.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78.834199999999996</v>
+      </c>
+      <c r="F9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>-65.932100000000005</v>
+        <v>-66.683099999999996</v>
       </c>
       <c r="E10">
-        <v>-61.847099999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111.5317</v>
+      </c>
+      <c r="F10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>446</v>
+        <v>541</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>-66.400000000000006</v>
+        <v>-66.693100000000001</v>
       </c>
       <c r="E11">
-        <v>-63.733330000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111.5039</v>
+      </c>
+      <c r="F11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="D12">
-        <v>-82.774000000000001</v>
+        <v>-71.95</v>
       </c>
       <c r="E12">
-        <v>-13.054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23.33333</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>394</v>
+        <v>536</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D13">
-        <v>-74.546000000000006</v>
+        <v>-71.95</v>
       </c>
       <c r="E13">
-        <v>-111.88500000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23.35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>-77.906700000000001</v>
+        <v>-66.132999999999996</v>
       </c>
       <c r="E14">
-        <v>169.2527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15">
-        <v>-66.132999999999996</v>
+        <v>-63.183</v>
       </c>
       <c r="E15">
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-55.4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>344</v>
+        <v>578</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>-64.778000000000006</v>
+        <v>-74.916667000000004</v>
       </c>
       <c r="E16">
-        <v>-64.066999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>487</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>-80.367500000000007</v>
+      </c>
+      <c r="E17">
+        <v>77.373800000000003</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>490</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>-76.418000000000006</v>
+      </c>
+      <c r="E18">
+        <v>77.03</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>522</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>-73.683333000000005</v>
+      </c>
+      <c r="E19">
+        <v>76.966667000000001</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>534</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20">
+        <v>-82.25</v>
+      </c>
+      <c r="E20">
+        <v>-87.883332999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>535</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21">
+        <v>-79.766666000000001</v>
+      </c>
+      <c r="E21">
+        <v>-83.266666000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>570</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>-73.105277999999998</v>
+      </c>
+      <c r="E22">
+        <v>-13.164721999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>581</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>-73.05</v>
+      </c>
+      <c r="E23">
+        <v>-13.383333</v>
+      </c>
+      <c r="F23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>480</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>-66.688056000000003</v>
+      </c>
+      <c r="E24">
+        <v>139.90861100000001</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>482</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>-66.73</v>
+      </c>
+      <c r="E25">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>482</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>-66.73</v>
+      </c>
+      <c r="E26">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>483</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>-66.694999999999993</v>
+      </c>
+      <c r="E27">
+        <v>139.91499999999999</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>485</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>-74.879722000000001</v>
+      </c>
+      <c r="E28">
+        <v>123.41333299999999</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>-74.102778000000001</v>
+      </c>
+      <c r="E29">
+        <v>123.345555</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>259</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30">
+        <v>-80.436809999999994</v>
+      </c>
+      <c r="E30">
+        <v>-44.431989999999999</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>260</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31">
+        <v>-71.216250000000002</v>
+      </c>
+      <c r="E31">
+        <v>-10.067159999999999</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>459</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>-73.58</v>
+      </c>
+      <c r="E32">
+        <v>166.62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>461</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>-76.72</v>
+      </c>
+      <c r="E33">
+        <v>162.97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>478</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>-75.099999999999994</v>
+      </c>
+      <c r="E34">
+        <v>123.4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>491</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>-74.7</v>
+      </c>
+      <c r="E35">
+        <v>164.1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>498</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>-75.55</v>
+      </c>
+      <c r="E36">
+        <v>145.83000000000001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>502</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>-71.63</v>
+      </c>
+      <c r="E37">
+        <v>148.66999999999999</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>511</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>-74.13</v>
+      </c>
+      <c r="E38">
+        <v>163.43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>558</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>-74.950472000000005</v>
+      </c>
+      <c r="E39">
+        <v>161.77069399999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>567</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>-74.626293599999997</v>
+      </c>
+      <c r="E40">
+        <v>164.01099199999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>517</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>-73.63</v>
+      </c>
+      <c r="E41">
+        <v>160.65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>559</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>-72.766943999999995</v>
+      </c>
+      <c r="E42">
+        <v>159.03890000000001</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>557</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>-74.333299999999994</v>
+      </c>
+      <c r="E43">
+        <v>165.13329999999999</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>525</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>-74.72</v>
+      </c>
+      <c r="E44">
+        <v>164.03</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>529</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>-73.05</v>
+      </c>
+      <c r="E45">
+        <v>169.6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>532</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>-73.58</v>
+      </c>
+      <c r="E46">
+        <v>158.32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>655</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>-74.934166669999996</v>
+      </c>
+      <c r="E47">
+        <v>163.7322222</v>
+      </c>
+      <c r="F47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>542</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>-74.25</v>
+      </c>
+      <c r="E48">
+        <v>163.16999999999999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>489</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49">
+        <v>-77.316665999999998</v>
+      </c>
+      <c r="E49">
+        <v>39.703055999999997</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>463</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>-67.021000000000001</v>
+      </c>
+      <c r="E50">
+        <v>-61.5</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>465</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>-65.932100000000005</v>
+      </c>
+      <c r="E51">
+        <v>-61.847099999999998</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>446</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>-66.400000000000006</v>
+      </c>
+      <c r="E52">
+        <v>-63.733330000000002</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>500</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>-71.160278000000005</v>
+      </c>
+      <c r="E53">
+        <v>-6.6986100000000004</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>146</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>-75.001999999999995</v>
+      </c>
+      <c r="E54">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>471</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C55" t="s">
         <v>28</v>
       </c>
-      <c r="D17">
+      <c r="D55">
         <v>-78.016367000000002</v>
       </c>
-      <c r="E17">
+      <c r="E55">
         <v>165.54974999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="F55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>472</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B56" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C56" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
+      <c r="D56">
         <v>-77.31</v>
       </c>
-      <c r="E18">
+      <c r="E56">
         <v>161.51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>587</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>-72.2062667</v>
-      </c>
-      <c r="E19">
-        <v>-60.169750000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>633</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>-80.010999999999996</v>
-      </c>
-      <c r="E20">
-        <v>-119.438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>570</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21">
-        <v>-73.105277999999998</v>
-      </c>
-      <c r="E21">
-        <v>-13.164721999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>667</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>-77.216999999999999</v>
-      </c>
-      <c r="E22">
-        <v>166.43899999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>389</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23">
-        <v>-67.009</v>
-      </c>
-      <c r="E23">
-        <v>142.66399999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>625</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>-72.19</v>
-      </c>
-      <c r="E24">
-        <v>170.16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>475</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25">
-        <v>-65.867000000000004</v>
-      </c>
-      <c r="E25">
-        <v>113.06694400000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>476</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>-77.544799999999995</v>
-      </c>
-      <c r="E26">
-        <v>166.227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27">
-        <v>-77.966999999999999</v>
-      </c>
-      <c r="E27">
-        <v>167.53100000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>477</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28">
-        <v>-66.286100000000005</v>
-      </c>
-      <c r="E28">
-        <v>110.7633</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>578</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <v>-74.916667000000004</v>
-      </c>
-      <c r="E29">
-        <v>163.69999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>549</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>-64.150000000000006</v>
-      </c>
-      <c r="E30">
-        <v>-60.95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>478</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>-75.099999999999994</v>
-      </c>
-      <c r="E31">
-        <v>123.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>479</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32">
-        <v>-77.534999999999997</v>
-      </c>
-      <c r="E32">
-        <v>167.08600000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>480</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33">
-        <v>-66.688056000000003</v>
-      </c>
-      <c r="E33">
-        <v>139.90861100000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>678</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34">
-        <v>-66.704999999999998</v>
-      </c>
-      <c r="E34">
-        <v>139.84100000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>482</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35">
-        <v>-66.73</v>
-      </c>
-      <c r="E35">
-        <v>139.69999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>482</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36">
-        <v>-66.73</v>
-      </c>
-      <c r="E36">
-        <v>139.69999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>483</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37">
-        <v>-66.694999999999993</v>
-      </c>
-      <c r="E37">
-        <v>139.91499999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>681</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38">
-        <v>-67.385000000000005</v>
-      </c>
-      <c r="E38">
-        <v>138.72900000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>677</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39">
-        <v>-70.426000000000002</v>
-      </c>
-      <c r="E39">
-        <v>134.149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="F56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>484</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B57" t="s">
         <v>57</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40">
-        <v>-79.84</v>
-      </c>
-      <c r="E40">
-        <v>159.32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>485</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
-        <v>-74.879722000000001</v>
-      </c>
-      <c r="E41">
-        <v>123.41333299999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>576</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42">
-        <v>-68.087000000000003</v>
-      </c>
-      <c r="E42">
-        <v>-68.825000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>487</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43">
-        <v>-80.367500000000007</v>
-      </c>
-      <c r="E43">
-        <v>77.373800000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>269</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44">
-        <v>-74.102778000000001</v>
-      </c>
-      <c r="E44">
-        <v>123.345555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>619</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45">
-        <v>-75.105999999999995</v>
-      </c>
-      <c r="E45">
-        <v>123.346</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>349</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46">
-        <v>-77.31</v>
-      </c>
-      <c r="E46">
-        <v>39.700000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>489</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47">
-        <v>-77.316665999999998</v>
-      </c>
-      <c r="E47">
-        <v>39.703055999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>422</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48">
-        <v>-69.7333</v>
-      </c>
-      <c r="E48">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>490</v>
-      </c>
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49">
-        <v>-76.418000000000006</v>
-      </c>
-      <c r="E49">
-        <v>77.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>632</v>
-      </c>
-      <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>-83.093999999999994</v>
-      </c>
-      <c r="E50">
-        <v>174.285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>610</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>-82.606999999999999</v>
-      </c>
-      <c r="E51">
-        <v>-137.078</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>627</v>
-      </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>-78.426000000000002</v>
-      </c>
-      <c r="E52">
-        <v>173.18600000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>679</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>-83.997</v>
-      </c>
-      <c r="E53">
-        <v>-175.047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>491</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>-74.7</v>
-      </c>
-      <c r="E54">
-        <v>164.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>635</v>
-      </c>
-      <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55">
-        <v>-84.902000000000001</v>
-      </c>
-      <c r="E55">
-        <v>-128.86000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>636</v>
-      </c>
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56">
-        <v>-74.849999999999994</v>
-      </c>
-      <c r="E56">
-        <v>-100.404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>492</v>
-      </c>
-      <c r="B57" t="s">
-        <v>78</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
       </c>
       <c r="D57">
+        <v>-79.84</v>
+      </c>
+      <c r="E57">
+        <v>159.32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>492</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58">
         <v>-76.725542000000004</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>162.588381</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>493</v>
-      </c>
-      <c r="B58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58">
-        <v>-77.706199999999995</v>
-      </c>
-      <c r="E58">
-        <v>163.90280000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>629</v>
+        <v>497</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D59">
-        <v>-77.802999999999997</v>
+        <v>-78.023049999999998</v>
       </c>
       <c r="E59">
-        <v>170.81700000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163.89666700000001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>259</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D60">
-        <v>-80.436809999999994</v>
+        <v>-77.02</v>
       </c>
       <c r="E60">
-        <v>-44.431989999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162.52000000000001</v>
+      </c>
+      <c r="F60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D61">
-        <v>-77.761899999999997</v>
+        <v>-77.41</v>
       </c>
       <c r="E61">
-        <v>166.899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163.66999999999999</v>
+      </c>
+      <c r="F61" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>586</v>
+        <v>515</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D62">
-        <v>-71.329333300000002</v>
+        <v>-78.094399999999993</v>
       </c>
       <c r="E62">
-        <v>-68.266999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163.79968299999999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
       </c>
       <c r="D63">
-        <v>-78.023049999999998</v>
+        <v>-78.510000000000005</v>
       </c>
       <c r="E63">
-        <v>163.89666700000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>166.77</v>
+      </c>
+      <c r="F63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>-79.879000000000005</v>
+        <v>-77.319999999999993</v>
       </c>
       <c r="E64">
-        <v>-178.565</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160.16999999999999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>-75.55</v>
+        <v>-80.931849999999997</v>
       </c>
       <c r="E65">
-        <v>145.83000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>159.50321099999999</v>
+      </c>
+      <c r="F65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
       </c>
       <c r="D66">
-        <v>-77.02</v>
+        <v>-77.330085999999994</v>
       </c>
       <c r="E66">
-        <v>162.52000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162.532025</v>
+      </c>
+      <c r="F66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>-75.584220000000002</v>
+        <v>-77.19</v>
       </c>
       <c r="E67">
-        <v>-26.788150000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>161.36000000000001</v>
+      </c>
+      <c r="F67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>500</v>
+        <v>582</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="D68">
-        <v>-71.160278000000005</v>
+        <v>-72.016666999999998</v>
       </c>
       <c r="E68">
-        <v>-6.6986100000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.5333332999999998</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>638</v>
+        <v>548</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>-83.004999999999995</v>
+        <v>-64.766666999999998</v>
       </c>
       <c r="E69">
-        <v>-121.407</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-64.066666999999995</v>
+      </c>
+      <c r="F69" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>-66.581900000000005</v>
+        <v>-68.143000000000001</v>
       </c>
       <c r="E70">
-        <v>110.693889</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-63.957000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>607</v>
+        <v>549</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>-89.001000000000005</v>
+        <v>-64.150000000000006</v>
       </c>
       <c r="E71">
-        <v>-0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>130</v>
-      </c>
+        <v>-60.95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>-78.090599999999995</v>
+        <v>-77.714399999999998</v>
       </c>
       <c r="E72">
-        <v>166.6808</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>502</v>
-      </c>
+        <v>162.46420000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>-71.63</v>
+        <v>-77.433499999999995</v>
       </c>
       <c r="E73">
-        <v>148.66999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>401</v>
-      </c>
+        <v>162.70359999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>-77.174000000000007</v>
+        <v>-77.612700000000004</v>
       </c>
       <c r="E74">
-        <v>-123.39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>503</v>
-      </c>
+        <v>162.96350000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>-74.7</v>
+        <v>-77.563699999999997</v>
       </c>
       <c r="E75">
-        <v>164.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>132</v>
-      </c>
+        <v>163.2801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>-75.888000000000005</v>
+        <v>-77.588700000000003</v>
       </c>
       <c r="E76">
-        <v>25.834</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>504</v>
-      </c>
+        <v>163.41749999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>-63.183</v>
+        <v>-77.532600000000002</v>
       </c>
       <c r="E77">
-        <v>-55.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>505</v>
-      </c>
+        <v>160.27109999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D78">
-        <v>-77.875399999999999</v>
+        <v>-77.610900000000001</v>
       </c>
       <c r="E78">
-        <v>165.29939999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>624</v>
-      </c>
+        <v>163.1696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>-77.995000000000005</v>
+        <v>-77.747399999999999</v>
       </c>
       <c r="E79">
-        <v>-97.268000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>146</v>
-      </c>
+        <v>161.5162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80">
-        <v>-75.001999999999995</v>
-      </c>
-      <c r="E80">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>608</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>-79.465873779999995</v>
+        <v>-77.671499999999995</v>
       </c>
       <c r="E81">
-        <v>-112.1062494</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>583</v>
-      </c>
+        <v>163.07910000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>-78.718633299999993</v>
+        <v>-78.101133000000004</v>
       </c>
       <c r="E82">
-        <v>-68.437283300000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>585</v>
-      </c>
+        <v>163.78765000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>-67.013300000000001</v>
+        <v>-77.740200000000002</v>
       </c>
       <c r="E83">
-        <v>-61.458833300000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>670</v>
-      </c>
+        <v>162.1284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>-77.438999999999993</v>
+        <v>-77.525670000000005</v>
       </c>
       <c r="E84">
-        <v>170.75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>506</v>
-      </c>
+        <v>161.69129000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>-66.853279000000001</v>
+        <v>-77.377799999999993</v>
       </c>
       <c r="E85">
-        <v>112.744444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>161.8006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>507</v>
+        <v>422</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D86">
-        <v>-66.729600000000005</v>
+        <v>-69.7333</v>
       </c>
       <c r="E86">
-        <v>112.8348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.7</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>508</v>
       </c>
@@ -2757,59 +2975,71 @@
       <c r="E87">
         <v>159.38</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D88">
-        <v>-82.474999999999994</v>
+        <v>-67.671700000000001</v>
       </c>
       <c r="E88">
-        <v>-174.58699999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45.383299999999998</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D89">
-        <v>-75.914169999999999</v>
+        <v>-74.7667</v>
       </c>
       <c r="E89">
-        <v>-59.264330000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-136.86670000000001</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>680</v>
+        <v>503</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D90">
-        <v>-78.394000000000005</v>
+        <v>-74.7</v>
       </c>
       <c r="E90">
-        <v>168.446</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>164.1</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>510</v>
       </c>
@@ -2825,1303 +3055,1616 @@
       <c r="E91">
         <v>-103.021</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D92">
-        <v>-74.13</v>
+        <v>-77.906700000000001</v>
       </c>
       <c r="E92">
-        <v>163.43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>169.2527</v>
+      </c>
+      <c r="F92" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>673</v>
+        <v>476</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D93">
-        <v>-78.194999999999993</v>
+        <v>-77.544799999999995</v>
       </c>
       <c r="E93">
-        <v>170.02799999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>166.227</v>
+      </c>
+      <c r="F93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>558</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D94">
-        <v>-74.950472000000005</v>
+        <v>-77.966999999999999</v>
       </c>
       <c r="E94">
-        <v>161.77069399999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167.53100000000001</v>
+      </c>
+      <c r="F94" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>189</v>
+        <v>479</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D95">
-        <v>-74.945999999999998</v>
+        <v>-77.534999999999997</v>
       </c>
       <c r="E95">
-        <v>163.68700000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167.08600000000001</v>
+      </c>
+      <c r="F95" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>665</v>
+        <v>493</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D96">
-        <v>-77.438999999999993</v>
+        <v>-77.706199999999995</v>
       </c>
       <c r="E96">
-        <v>163.75399999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163.90280000000001</v>
+      </c>
+      <c r="F96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>666</v>
+        <v>496</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D97">
-        <v>-77.438999999999993</v>
+        <v>-77.761899999999997</v>
       </c>
       <c r="E97">
-        <v>163.75899999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>166.899</v>
+      </c>
+      <c r="F97" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>512</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D98">
-        <v>-77.41</v>
+        <v>-78.090599999999995</v>
       </c>
       <c r="E98">
-        <v>163.66999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>166.6808</v>
+      </c>
+      <c r="F98" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
       </c>
       <c r="D99">
+        <v>-77.875399999999999</v>
+      </c>
+      <c r="E99">
+        <v>165.29939999999999</v>
+      </c>
+      <c r="F99" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>513</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
         <v>-77.366699999999994</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>163.36670000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="F100" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>521</v>
+      </c>
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>-77.862099999999998</v>
+      </c>
+      <c r="E101">
+        <v>168.13300000000001</v>
+      </c>
+      <c r="F101" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>533</v>
+      </c>
+      <c r="B102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>-77.685100000000006</v>
+      </c>
+      <c r="E102">
+        <v>166.38030000000001</v>
+      </c>
+      <c r="F102" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>325</v>
+      </c>
+      <c r="B103" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>-78.124099999999999</v>
+      </c>
+      <c r="E103">
+        <v>168.31989999999999</v>
+      </c>
+      <c r="F103" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>327</v>
+      </c>
+      <c r="B104" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>-77.847800000000007</v>
+      </c>
+      <c r="E104">
+        <v>167.14680000000001</v>
+      </c>
+      <c r="F104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>587</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105">
+        <v>-72.2062667</v>
+      </c>
+      <c r="E105">
+        <v>-60.169750000000001</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>586</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106">
+        <v>-71.329333300000002</v>
+      </c>
+      <c r="E106">
+        <v>-68.266999999999996</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>591</v>
+      </c>
+      <c r="B107" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107">
+        <v>-75.584220000000002</v>
+      </c>
+      <c r="E107">
+        <v>-26.788150000000002</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>583</v>
+      </c>
+      <c r="B108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108">
+        <v>-78.718633299999993</v>
+      </c>
+      <c r="E108">
+        <v>-68.437283300000004</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>585</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109">
+        <v>-67.013300000000001</v>
+      </c>
+      <c r="E109">
+        <v>-61.458833300000002</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>572</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110">
+        <v>-75.914169999999999</v>
+      </c>
+      <c r="E110">
+        <v>-59.264330000000001</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>589</v>
+      </c>
+      <c r="B111" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111">
+        <v>-75.820800000000006</v>
+      </c>
+      <c r="E111">
+        <v>-58.966933300000001</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>588</v>
+      </c>
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112">
+        <v>-74.792266699999999</v>
+      </c>
+      <c r="E112">
+        <v>-71.489833300000001</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>590</v>
+      </c>
+      <c r="B113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113">
+        <v>-75.552970000000002</v>
+      </c>
+      <c r="E113">
+        <v>-27.44679</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>440</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>-82.01</v>
+      </c>
+      <c r="E114">
+        <v>96.76</v>
+      </c>
+      <c r="F114" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>676</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>-79.012</v>
+      </c>
+      <c r="E115">
+        <v>170.72300000000001</v>
+      </c>
+      <c r="F115" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>623</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>-75.995000000000005</v>
+      </c>
+      <c r="E116">
+        <v>-87.47</v>
+      </c>
+      <c r="F116" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>394</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>-74.546000000000006</v>
+      </c>
+      <c r="E117">
+        <v>-111.88500000000001</v>
+      </c>
+      <c r="F117" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>344</v>
+      </c>
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>-64.778000000000006</v>
+      </c>
+      <c r="E118">
+        <v>-64.066999999999993</v>
+      </c>
+      <c r="F118" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>633</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>-80.010999999999996</v>
+      </c>
+      <c r="E119">
+        <v>-119.438</v>
+      </c>
+      <c r="F119" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>667</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>-77.216999999999999</v>
+      </c>
+      <c r="E120">
+        <v>166.43899999999999</v>
+      </c>
+      <c r="F120" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>625</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>-72.19</v>
+      </c>
+      <c r="E121">
+        <v>170.16</v>
+      </c>
+      <c r="F121" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>632</v>
+      </c>
+      <c r="B122" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>-83.093999999999994</v>
+      </c>
+      <c r="E122">
+        <v>174.285</v>
+      </c>
+      <c r="F122" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>610</v>
+      </c>
+      <c r="B123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123">
+        <v>-82.606999999999999</v>
+      </c>
+      <c r="E123">
+        <v>-137.078</v>
+      </c>
+      <c r="F123" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>627</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>-78.426000000000002</v>
+      </c>
+      <c r="E124">
+        <v>173.18600000000001</v>
+      </c>
+      <c r="F124" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>679</v>
+      </c>
+      <c r="B125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>-83.997</v>
+      </c>
+      <c r="E125">
+        <v>-175.047</v>
+      </c>
+      <c r="F125" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>635</v>
+      </c>
+      <c r="B126" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>-84.902000000000001</v>
+      </c>
+      <c r="E126">
+        <v>-128.86000000000001</v>
+      </c>
+      <c r="F126" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>636</v>
+      </c>
+      <c r="B127" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>-74.849999999999994</v>
+      </c>
+      <c r="E127">
+        <v>-100.404</v>
+      </c>
+      <c r="F127" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>629</v>
+      </c>
+      <c r="B128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>-77.802999999999997</v>
+      </c>
+      <c r="E128">
+        <v>170.81700000000001</v>
+      </c>
+      <c r="F128" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>390</v>
+      </c>
+      <c r="B129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>-79.879000000000005</v>
+      </c>
+      <c r="E129">
+        <v>-178.565</v>
+      </c>
+      <c r="F129" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>638</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130">
+        <v>-83.004999999999995</v>
+      </c>
+      <c r="E130">
+        <v>-121.407</v>
+      </c>
+      <c r="F130" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>607</v>
+      </c>
+      <c r="B131" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <v>-89.001000000000005</v>
+      </c>
+      <c r="E131">
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="F131" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>401</v>
+      </c>
+      <c r="B132" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>-77.174000000000007</v>
+      </c>
+      <c r="E132">
+        <v>-123.39</v>
+      </c>
+      <c r="F132" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>624</v>
+      </c>
+      <c r="B133" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>-77.995000000000005</v>
+      </c>
+      <c r="E133">
+        <v>-97.268000000000001</v>
+      </c>
+      <c r="F133" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>608</v>
+      </c>
+      <c r="B134" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>-79.465873779999995</v>
+      </c>
+      <c r="E134">
+        <v>-112.1062494</v>
+      </c>
+      <c r="F134" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>670</v>
+      </c>
+      <c r="B135" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>-77.438999999999993</v>
+      </c>
+      <c r="E135">
+        <v>170.75</v>
+      </c>
+      <c r="F135" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>397</v>
+      </c>
+      <c r="B136" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136">
+        <v>-82.474999999999994</v>
+      </c>
+      <c r="E136">
+        <v>-174.58699999999999</v>
+      </c>
+      <c r="F136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>680</v>
+      </c>
+      <c r="B137" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>-78.394000000000005</v>
+      </c>
+      <c r="E137">
+        <v>168.446</v>
+      </c>
+      <c r="F137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>673</v>
+      </c>
+      <c r="B138" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>-78.194999999999993</v>
+      </c>
+      <c r="E138">
+        <v>170.02799999999999</v>
+      </c>
+      <c r="F138" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>189</v>
+      </c>
+      <c r="B139" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>-74.945999999999998</v>
+      </c>
+      <c r="E139">
+        <v>163.68700000000001</v>
+      </c>
+      <c r="F139" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>665</v>
+      </c>
+      <c r="B140" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>-77.438999999999993</v>
+      </c>
+      <c r="E140">
+        <v>163.75399999999999</v>
+      </c>
+      <c r="F140" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>666</v>
+      </c>
+      <c r="B141" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>-77.438999999999993</v>
+      </c>
+      <c r="E141">
+        <v>163.75899999999999</v>
+      </c>
+      <c r="F141" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>630</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B142" t="s">
         <v>123</v>
       </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100">
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142">
         <v>-79.980999999999995</v>
       </c>
-      <c r="E100">
+      <c r="E142">
         <v>-165.09899999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>567</v>
-      </c>
-      <c r="B101" t="s">
-        <v>124</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101">
-        <v>-74.626293599999997</v>
-      </c>
-      <c r="E101">
-        <v>164.01099199999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="F142" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>600</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B143" t="s">
         <v>125</v>
       </c>
-      <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102">
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
         <v>-79.912999999999997</v>
       </c>
-      <c r="E102">
+      <c r="E143">
         <v>165.65700000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>515</v>
-      </c>
-      <c r="B103" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103">
-        <v>-78.094399999999993</v>
-      </c>
-      <c r="E103">
-        <v>163.79968299999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="F143" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>669</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B144" t="s">
         <v>127</v>
       </c>
-      <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104">
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144">
         <v>-78.555000000000007</v>
       </c>
-      <c r="E104">
+      <c r="E144">
         <v>166.691</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>516</v>
-      </c>
-      <c r="B105" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105">
-        <v>-78.510000000000005</v>
-      </c>
-      <c r="E105">
-        <v>166.77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="F144" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>606</v>
+      </c>
+      <c r="B145" t="s">
+        <v>135</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>-89</v>
+      </c>
+      <c r="E145">
+        <v>90.024000000000001</v>
+      </c>
+      <c r="F145" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>674</v>
+      </c>
+      <c r="B146" t="s">
+        <v>141</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>-77.951999999999998</v>
+      </c>
+      <c r="E146">
+        <v>166.5</v>
+      </c>
+      <c r="F146" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>265</v>
+      </c>
+      <c r="B147" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>-71.891000000000005</v>
+      </c>
+      <c r="E147">
+        <v>171.21</v>
+      </c>
+      <c r="F147" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>441</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>-84.246629639999995</v>
+      </c>
+      <c r="E148">
+        <v>-170.06819820000001</v>
+      </c>
+      <c r="F148" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>671</v>
+      </c>
+      <c r="B149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>-79.816000000000003</v>
+      </c>
+      <c r="E149">
+        <v>170.358</v>
+      </c>
+      <c r="F149" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>640</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>-81.652000000000001</v>
+      </c>
+      <c r="E150">
+        <v>-148.99199999999999</v>
+      </c>
+      <c r="F150" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>639</v>
+      </c>
+      <c r="B151" t="s">
+        <v>161</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>-84.602000000000004</v>
+      </c>
+      <c r="E151">
+        <v>-115.84099999999999</v>
+      </c>
+      <c r="F151" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>634</v>
+      </c>
+      <c r="B152" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>-72.531999999999996</v>
+      </c>
+      <c r="E152">
+        <v>-97.545000000000002</v>
+      </c>
+      <c r="F152" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>628</v>
+      </c>
+      <c r="B153" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>-78.408000000000001</v>
+      </c>
+      <c r="E153">
+        <v>177.82900000000001</v>
+      </c>
+      <c r="F153" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>668</v>
+      </c>
+      <c r="B154" t="s">
+        <v>173</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>-78.075999999999993</v>
+      </c>
+      <c r="E154">
+        <v>167.45099999999999</v>
+      </c>
+      <c r="F154" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>404</v>
+      </c>
+      <c r="B155" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>-76.141999999999996</v>
+      </c>
+      <c r="E155">
+        <v>168.39400000000001</v>
+      </c>
+      <c r="F155" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>672</v>
+      </c>
+      <c r="B156" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>-77.867999999999995</v>
+      </c>
+      <c r="E156">
+        <v>166.92099999999999</v>
+      </c>
+      <c r="F156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>675</v>
+      </c>
+      <c r="B157" t="s">
+        <v>181</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>-77.727999999999994</v>
+      </c>
+      <c r="E157">
+        <v>167.67599999999999</v>
+      </c>
+      <c r="F157" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>389</v>
+      </c>
+      <c r="B158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158">
+        <v>-67.009</v>
+      </c>
+      <c r="E158">
+        <v>142.66399999999999</v>
+      </c>
+      <c r="F158" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>240</v>
+      </c>
+      <c r="B159" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" t="s">
+        <v>139</v>
+      </c>
+      <c r="D159">
+        <v>-82.325000000000003</v>
+      </c>
+      <c r="E159">
+        <v>75.989000000000004</v>
+      </c>
+      <c r="F159" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>678</v>
+      </c>
+      <c r="B160" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" t="s">
+        <v>51</v>
+      </c>
+      <c r="D160">
+        <v>-66.704999999999998</v>
+      </c>
+      <c r="E160">
+        <v>139.84100000000001</v>
+      </c>
+      <c r="F160" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>681</v>
+      </c>
+      <c r="B161" t="s">
+        <v>55</v>
+      </c>
+      <c r="C161" t="s">
+        <v>51</v>
+      </c>
+      <c r="D161">
+        <v>-67.385000000000005</v>
+      </c>
+      <c r="E161">
+        <v>138.72900000000001</v>
+      </c>
+      <c r="F161" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>677</v>
+      </c>
+      <c r="B162" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162">
+        <v>-70.426000000000002</v>
+      </c>
+      <c r="E162">
+        <v>134.149</v>
+      </c>
+      <c r="F162" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>619</v>
+      </c>
+      <c r="B163" t="s">
+        <v>63</v>
+      </c>
+      <c r="C163" t="s">
+        <v>51</v>
+      </c>
+      <c r="D163">
+        <v>-75.105999999999995</v>
+      </c>
+      <c r="E163">
+        <v>123.346</v>
+      </c>
+      <c r="F163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>648</v>
+      </c>
+      <c r="B164" t="s">
+        <v>143</v>
+      </c>
+      <c r="C164" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164">
+        <v>-66.819999999999993</v>
+      </c>
+      <c r="E164">
+        <v>141.38999999999999</v>
+      </c>
+      <c r="F164" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>349</v>
+      </c>
+      <c r="B165" t="s">
+        <v>64</v>
+      </c>
+      <c r="C165" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165">
+        <v>-77.31</v>
+      </c>
+      <c r="E165">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F165" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>132</v>
+      </c>
+      <c r="B166" t="s">
+        <v>99</v>
+      </c>
+      <c r="C166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166">
+        <v>-75.888000000000005</v>
+      </c>
+      <c r="E166">
+        <v>25.834</v>
+      </c>
+      <c r="F166" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>218</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B167" t="s">
         <v>129</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C167" t="s">
         <v>65</v>
       </c>
-      <c r="D106">
+      <c r="D167">
         <v>-70.7</v>
       </c>
-      <c r="E106">
+      <c r="E167">
         <v>44.29</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>517</v>
-      </c>
-      <c r="B107" t="s">
-        <v>130</v>
-      </c>
-      <c r="C107" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107">
-        <v>-73.63</v>
-      </c>
-      <c r="E107">
-        <v>160.65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>518</v>
-      </c>
-      <c r="B108" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108">
-        <v>-67.671700000000001</v>
-      </c>
-      <c r="E108">
-        <v>45.383299999999998</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>519</v>
-      </c>
-      <c r="B109" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" t="s">
-        <v>40</v>
-      </c>
-      <c r="D109">
-        <v>-69.131299999999996</v>
-      </c>
-      <c r="E109">
-        <v>85.999200000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>520</v>
-      </c>
-      <c r="B110" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110">
-        <v>-77.319999999999993</v>
-      </c>
-      <c r="E110">
-        <v>160.16999999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>521</v>
-      </c>
-      <c r="B111" t="s">
-        <v>134</v>
-      </c>
-      <c r="C111" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111">
-        <v>-77.862099999999998</v>
-      </c>
-      <c r="E111">
-        <v>168.13300000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>606</v>
-      </c>
-      <c r="B112" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112">
-        <v>-89</v>
-      </c>
-      <c r="E112">
-        <v>90.024000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>581</v>
-      </c>
-      <c r="B113" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113">
-        <v>-73.05</v>
-      </c>
-      <c r="E113">
-        <v>-13.383333</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>522</v>
-      </c>
-      <c r="B114" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114">
-        <v>-73.683333000000005</v>
-      </c>
-      <c r="E114">
-        <v>76.966667000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>240</v>
-      </c>
-      <c r="B115" t="s">
-        <v>138</v>
-      </c>
-      <c r="C115" t="s">
-        <v>139</v>
-      </c>
-      <c r="D115">
-        <v>-82.325000000000003</v>
-      </c>
-      <c r="E115">
-        <v>75.989000000000004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>559</v>
-      </c>
-      <c r="B116" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116">
-        <v>-72.766943999999995</v>
-      </c>
-      <c r="E116">
-        <v>159.03890000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>674</v>
-      </c>
-      <c r="B117" t="s">
-        <v>141</v>
-      </c>
-      <c r="C117" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117">
-        <v>-77.951999999999998</v>
-      </c>
-      <c r="E117">
-        <v>166.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>557</v>
-      </c>
-      <c r="B118" t="s">
-        <v>142</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118">
-        <v>-74.333299999999994</v>
-      </c>
-      <c r="E118">
-        <v>165.13329999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>648</v>
-      </c>
-      <c r="B119" t="s">
-        <v>143</v>
-      </c>
-      <c r="C119" t="s">
-        <v>51</v>
-      </c>
-      <c r="D119">
-        <v>-66.819999999999993</v>
-      </c>
-      <c r="E119">
-        <v>141.38999999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>265</v>
-      </c>
-      <c r="B120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C120" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120">
-        <v>-71.891000000000005</v>
-      </c>
-      <c r="E120">
-        <v>171.21</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>649</v>
-      </c>
-      <c r="B121" t="s">
-        <v>145</v>
-      </c>
-      <c r="C121" t="s">
-        <v>146</v>
-      </c>
-      <c r="D121">
-        <v>-71.95</v>
-      </c>
-      <c r="E121">
-        <v>23.33333</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="F167" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>376</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B168" t="s">
         <v>147</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C168" t="s">
         <v>65</v>
       </c>
-      <c r="D122">
+      <c r="D168">
         <v>-74.016999999999996</v>
       </c>
-      <c r="E122">
+      <c r="E168">
         <v>43.061999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>525</v>
-      </c>
-      <c r="B123" t="s">
-        <v>148</v>
-      </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123">
-        <v>-74.72</v>
-      </c>
-      <c r="E123">
-        <v>164.03</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>527</v>
-      </c>
-      <c r="B124" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" t="s">
-        <v>69</v>
-      </c>
-      <c r="D124">
-        <v>-74.7667</v>
-      </c>
-      <c r="E124">
-        <v>-136.86670000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>441</v>
-      </c>
-      <c r="B125" t="s">
-        <v>150</v>
-      </c>
-      <c r="C125" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125">
-        <v>-84.246629639999995</v>
-      </c>
-      <c r="E125">
-        <v>-170.06819820000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>671</v>
-      </c>
-      <c r="B126" t="s">
-        <v>151</v>
-      </c>
-      <c r="C126" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126">
-        <v>-79.816000000000003</v>
-      </c>
-      <c r="E126">
-        <v>170.358</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>529</v>
-      </c>
-      <c r="B127" t="s">
-        <v>152</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127">
-        <v>-73.05</v>
-      </c>
-      <c r="E127">
-        <v>169.6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>640</v>
-      </c>
-      <c r="B128" t="s">
-        <v>153</v>
-      </c>
-      <c r="C128" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128">
-        <v>-81.652000000000001</v>
-      </c>
-      <c r="E128">
-        <v>-148.99199999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>589</v>
-      </c>
-      <c r="B129" t="s">
-        <v>154</v>
-      </c>
-      <c r="C129" t="s">
-        <v>31</v>
-      </c>
-      <c r="D129">
-        <v>-75.820800000000006</v>
-      </c>
-      <c r="E129">
-        <v>-58.966933300000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>530</v>
-      </c>
-      <c r="B130" t="s">
-        <v>155</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130">
-        <v>-80.931849999999997</v>
-      </c>
-      <c r="E130">
-        <v>159.50321099999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>588</v>
-      </c>
-      <c r="B131" t="s">
-        <v>156</v>
-      </c>
-      <c r="C131" t="s">
-        <v>31</v>
-      </c>
-      <c r="D131">
-        <v>-74.792266699999999</v>
-      </c>
-      <c r="E131">
-        <v>-71.489833300000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>531</v>
-      </c>
-      <c r="B132" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" t="s">
-        <v>40</v>
-      </c>
-      <c r="D132">
-        <v>-66.55</v>
-      </c>
-      <c r="E132">
-        <v>107.75</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>260</v>
-      </c>
-      <c r="B133" t="s">
-        <v>158</v>
-      </c>
-      <c r="C133" t="s">
-        <v>82</v>
-      </c>
-      <c r="D133">
-        <v>-71.216250000000002</v>
-      </c>
-      <c r="E133">
-        <v>-10.067159999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>532</v>
-      </c>
-      <c r="B134" t="s">
-        <v>159</v>
-      </c>
-      <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134">
-        <v>-73.58</v>
-      </c>
-      <c r="E134">
-        <v>158.32</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>533</v>
-      </c>
-      <c r="B135" t="s">
-        <v>160</v>
-      </c>
-      <c r="C135" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135">
-        <v>-77.685100000000006</v>
-      </c>
-      <c r="E135">
-        <v>166.38030000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>639</v>
-      </c>
-      <c r="B136" t="s">
-        <v>161</v>
-      </c>
-      <c r="C136" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136">
-        <v>-84.602000000000004</v>
-      </c>
-      <c r="E136">
-        <v>-115.84099999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>534</v>
-      </c>
-      <c r="B137" t="s">
-        <v>162</v>
-      </c>
-      <c r="C137" t="s">
-        <v>163</v>
-      </c>
-      <c r="D137">
-        <v>-82.25</v>
-      </c>
-      <c r="E137">
-        <v>-87.883332999999993</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>634</v>
-      </c>
-      <c r="B138" t="s">
-        <v>164</v>
-      </c>
-      <c r="C138" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138">
-        <v>-72.531999999999996</v>
-      </c>
-      <c r="E138">
-        <v>-97.545000000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>582</v>
-      </c>
-      <c r="B139" t="s">
-        <v>165</v>
-      </c>
-      <c r="C139" t="s">
-        <v>166</v>
-      </c>
-      <c r="D139">
-        <v>-72.016666999999998</v>
-      </c>
-      <c r="E139">
-        <v>2.5333332999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>535</v>
-      </c>
-      <c r="B140" t="s">
-        <v>167</v>
-      </c>
-      <c r="C140" t="s">
-        <v>163</v>
-      </c>
-      <c r="D140">
-        <v>-79.766666000000001</v>
-      </c>
-      <c r="E140">
-        <v>-83.266666000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>536</v>
-      </c>
-      <c r="B141" t="s">
-        <v>168</v>
-      </c>
-      <c r="C141" t="s">
-        <v>146</v>
-      </c>
-      <c r="D141">
-        <v>-71.95</v>
-      </c>
-      <c r="E141">
-        <v>23.35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>537</v>
-      </c>
-      <c r="B142" t="s">
-        <v>169</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142">
-        <v>-77.330085999999994</v>
-      </c>
-      <c r="E142">
-        <v>162.532025</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>538</v>
-      </c>
-      <c r="B143" t="s">
-        <v>170</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143">
-        <v>-77.19</v>
-      </c>
-      <c r="E143">
-        <v>161.36000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>655</v>
-      </c>
-      <c r="B144" t="s">
-        <v>171</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144">
-        <v>-74.934166669999996</v>
-      </c>
-      <c r="E144">
-        <v>163.7322222</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>628</v>
-      </c>
-      <c r="B145" t="s">
-        <v>172</v>
-      </c>
-      <c r="C145" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145">
-        <v>-78.408000000000001</v>
-      </c>
-      <c r="E145">
-        <v>177.82900000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>668</v>
-      </c>
-      <c r="B146" t="s">
-        <v>173</v>
-      </c>
-      <c r="C146" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146">
-        <v>-78.075999999999993</v>
-      </c>
-      <c r="E146">
-        <v>167.45099999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>325</v>
-      </c>
-      <c r="B147" t="s">
-        <v>174</v>
-      </c>
-      <c r="C147" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147">
-        <v>-78.124099999999999</v>
-      </c>
-      <c r="E147">
-        <v>168.31989999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>327</v>
-      </c>
-      <c r="B148" t="s">
-        <v>175</v>
-      </c>
-      <c r="C148" t="s">
-        <v>23</v>
-      </c>
-      <c r="D148">
-        <v>-77.847800000000007</v>
-      </c>
-      <c r="E148">
-        <v>167.14680000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>404</v>
-      </c>
-      <c r="B149" t="s">
-        <v>176</v>
-      </c>
-      <c r="C149" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149">
-        <v>-76.141999999999996</v>
-      </c>
-      <c r="E149">
-        <v>168.39400000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>539</v>
-      </c>
-      <c r="B150" t="s">
-        <v>177</v>
-      </c>
-      <c r="C150" t="s">
-        <v>40</v>
-      </c>
-      <c r="D150">
-        <v>-68.469200000000001</v>
-      </c>
-      <c r="E150">
-        <v>78.834199999999996</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>540</v>
-      </c>
-      <c r="B151" t="s">
-        <v>178</v>
-      </c>
-      <c r="C151" t="s">
-        <v>40</v>
-      </c>
-      <c r="D151">
-        <v>-66.683099999999996</v>
-      </c>
-      <c r="E151">
-        <v>111.5317</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>541</v>
-      </c>
-      <c r="B152" t="s">
-        <v>179</v>
-      </c>
-      <c r="C152" t="s">
-        <v>40</v>
-      </c>
-      <c r="D152">
-        <v>-66.693100000000001</v>
-      </c>
-      <c r="E152">
-        <v>111.5039</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>672</v>
-      </c>
-      <c r="B153" t="s">
-        <v>180</v>
-      </c>
-      <c r="C153" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153">
-        <v>-77.867999999999995</v>
-      </c>
-      <c r="E153">
-        <v>166.92099999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>675</v>
-      </c>
-      <c r="B154" t="s">
-        <v>181</v>
-      </c>
-      <c r="C154" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154">
-        <v>-77.727999999999994</v>
-      </c>
-      <c r="E154">
-        <v>167.67599999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>590</v>
-      </c>
-      <c r="B155" t="s">
-        <v>182</v>
-      </c>
-      <c r="C155" t="s">
-        <v>31</v>
-      </c>
-      <c r="D155">
-        <v>-75.552970000000002</v>
-      </c>
-      <c r="E155">
-        <v>-27.44679</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>542</v>
-      </c>
-      <c r="B156" t="s">
-        <v>183</v>
-      </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156">
-        <v>-74.25</v>
-      </c>
-      <c r="E156">
-        <v>163.16999999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>184</v>
-      </c>
-      <c r="C157" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157">
-        <v>-77.714399999999998</v>
-      </c>
-      <c r="E157">
-        <v>162.46420000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>185</v>
-      </c>
-      <c r="C158" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158">
-        <v>-77.433499999999995</v>
-      </c>
-      <c r="E158">
-        <v>162.70359999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>186</v>
-      </c>
-      <c r="C159" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159">
-        <v>-77.612700000000004</v>
-      </c>
-      <c r="E159">
-        <v>162.96350000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>187</v>
-      </c>
-      <c r="C160" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160">
-        <v>-77.563699999999997</v>
-      </c>
-      <c r="E160">
-        <v>163.2801</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
-        <v>188</v>
-      </c>
-      <c r="C161" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161">
-        <v>-77.588700000000003</v>
-      </c>
-      <c r="E161">
-        <v>163.41749999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>189</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162">
-        <v>-77.532600000000002</v>
-      </c>
-      <c r="E162">
-        <v>160.27109999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>190</v>
-      </c>
-      <c r="C163" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163">
-        <v>-77.610900000000001</v>
-      </c>
-      <c r="E163">
-        <v>163.1696</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>191</v>
-      </c>
-      <c r="C164" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164">
-        <v>-77.747399999999999</v>
-      </c>
-      <c r="E164">
-        <v>161.5162</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
-        <v>192</v>
-      </c>
-      <c r="C165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>193</v>
-      </c>
-      <c r="C166" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166">
-        <v>-77.671499999999995</v>
-      </c>
-      <c r="E166">
-        <v>163.07910000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>194</v>
-      </c>
-      <c r="C167" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167">
-        <v>-78.101133000000004</v>
-      </c>
-      <c r="E167">
-        <v>163.78765000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>195</v>
-      </c>
-      <c r="C168" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168">
-        <v>-77.740200000000002</v>
-      </c>
-      <c r="E168">
-        <v>162.1284</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>584</v>
+      </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D169">
-        <v>-77.525670000000005</v>
+        <v>-82.774000000000001</v>
       </c>
       <c r="E169">
-        <v>161.69129000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+        <v>-13.054</v>
+      </c>
+      <c r="F169" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>576</v>
+      </c>
       <c r="B170" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D170">
-        <v>-77.377799999999993</v>
+        <v>-68.087000000000003</v>
       </c>
       <c r="E170">
-        <v>161.8006</v>
+        <v>-68.825000000000003</v>
+      </c>
+      <c r="F170" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G170">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F17:F19" r:id="rId4" display="http://www.chinare.gov.cn/en/"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F24" r:id="rId6"/>
+    <hyperlink ref="F25" r:id="rId7"/>
+    <hyperlink ref="F26:F29" r:id="rId8" display="http://www.institut-polaire.fr/language/en/"/>
+    <hyperlink ref="F30" r:id="rId9"/>
+    <hyperlink ref="F31" r:id="rId10"/>
+    <hyperlink ref="F49" r:id="rId11"/>
+    <hyperlink ref="F50" r:id="rId12"/>
+    <hyperlink ref="F51:F54" r:id="rId13" display="https://www.projects.science.uu.nl/iceclimate/aws/antarctica.php"/>
+    <hyperlink ref="F68" r:id="rId14"/>
+    <hyperlink ref="F86" r:id="rId15"/>
+    <hyperlink ref="F87:F89" r:id="rId16" display="http://www.aari.ru/index_en.html"/>
+    <hyperlink ref="F90" r:id="rId17"/>
+    <hyperlink ref="F91" r:id="rId18"/>
+    <hyperlink ref="F105" r:id="rId19"/>
+    <hyperlink ref="F106:F113" r:id="rId20" display="https://www.bas.ac.uk/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4134,12 +4677,12 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>198</v>
       </c>
@@ -4156,7 +4699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>296</v>
       </c>
@@ -4173,7 +4716,7 @@
         <v>96.76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>285</v>
       </c>
@@ -4190,7 +4733,7 @@
         <v>170.72300000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>299</v>
       </c>
@@ -4207,7 +4750,7 @@
         <v>-87.47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>272</v>
       </c>
@@ -4224,7 +4767,7 @@
         <v>-13.054</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>286</v>
       </c>
@@ -4241,7 +4784,7 @@
         <v>-111.88500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>200</v>
       </c>
@@ -4258,7 +4801,7 @@
         <v>-64.066999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>201</v>
       </c>
@@ -4275,7 +4818,7 @@
         <v>-134.17599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>203</v>
       </c>
@@ -4292,7 +4835,7 @@
         <v>-60.169750000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>204</v>
       </c>
@@ -4309,7 +4852,7 @@
         <v>-119.438</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>262</v>
       </c>
@@ -4326,7 +4869,7 @@
         <v>175.946</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>205</v>
       </c>
@@ -4343,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>207</v>
       </c>
@@ -4360,7 +4903,7 @@
         <v>166.43899999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>208</v>
       </c>
@@ -4377,7 +4920,7 @@
         <v>142.66399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>297</v>
       </c>
@@ -4394,7 +4937,7 @@
         <v>170.16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>209</v>
       </c>
@@ -4411,7 +4954,7 @@
         <v>167.53100000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>210</v>
       </c>
@@ -4428,7 +4971,7 @@
         <v>139.84100000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>211</v>
       </c>
@@ -4445,7 +4988,7 @@
         <v>138.72900000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>281</v>
       </c>
@@ -4462,7 +5005,7 @@
         <v>134.149</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>212</v>
       </c>
@@ -4479,7 +5022,7 @@
         <v>-68.825000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>213</v>
       </c>
@@ -4496,7 +5039,7 @@
         <v>-113.24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>199</v>
       </c>
@@ -4513,7 +5056,7 @@
         <v>123.346</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>219</v>
       </c>
@@ -4530,7 +5073,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>273</v>
       </c>
@@ -4547,7 +5090,7 @@
         <v>134.66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>215</v>
       </c>
@@ -4564,7 +5107,7 @@
         <v>174.285</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>216</v>
       </c>
@@ -4581,7 +5124,7 @@
         <v>-137.078</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>260</v>
       </c>
@@ -4598,7 +5141,7 @@
         <v>173.18600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>298</v>
       </c>
@@ -4615,7 +5158,7 @@
         <v>-175.047</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>264</v>
       </c>
@@ -4632,7 +5175,7 @@
         <v>163.95599999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>217</v>
       </c>
@@ -4649,7 +5192,7 @@
         <v>-128.86000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>287</v>
       </c>
@@ -4669,7 +5212,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>218</v>
       </c>
@@ -4689,7 +5232,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>275</v>
       </c>
@@ -4706,7 +5249,7 @@
         <v>-68.266999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>220</v>
       </c>
@@ -4723,7 +5266,7 @@
         <v>-178.565</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>223</v>
       </c>
@@ -4740,7 +5283,7 @@
         <v>-121.407</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>221</v>
       </c>
@@ -4757,7 +5300,7 @@
         <v>-0.39100000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>222</v>
       </c>
@@ -4774,7 +5317,7 @@
         <v>166.68</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>282</v>
       </c>
@@ -4791,7 +5334,7 @@
         <v>-65.67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>289</v>
       </c>
@@ -4808,7 +5351,7 @@
         <v>-123.39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>276</v>
       </c>
@@ -4825,7 +5368,7 @@
         <v>25.834</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>303</v>
       </c>
@@ -4842,7 +5385,7 @@
         <v>-97.268000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>224</v>
       </c>
@@ -4859,7 +5402,7 @@
         <v>-69.007000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>270</v>
       </c>
@@ -4876,7 +5419,7 @@
         <v>-112.1062494</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>229</v>
       </c>
@@ -4893,7 +5436,7 @@
         <v>-61.55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>230</v>
       </c>
@@ -4910,7 +5453,7 @@
         <v>170.75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -4927,7 +5470,7 @@
         <v>-174.58699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>226</v>
       </c>
@@ -4944,7 +5487,7 @@
         <v>-59.264000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>227</v>
       </c>
@@ -4961,7 +5504,7 @@
         <v>168.446</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>271</v>
       </c>
@@ -4978,7 +5521,7 @@
         <v>170.02799999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>232</v>
       </c>
@@ -4995,7 +5538,7 @@
         <v>163.68700000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>235</v>
       </c>
@@ -5012,7 +5555,7 @@
         <v>163.75399999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>300</v>
       </c>
@@ -5029,7 +5572,7 @@
         <v>163.75899999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>277</v>
       </c>
@@ -5046,7 +5589,7 @@
         <v>-165.09899999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>233</v>
       </c>
@@ -5063,7 +5606,7 @@
         <v>165.65700000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>290</v>
       </c>
@@ -5080,7 +5623,7 @@
         <v>-167.42099999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>266</v>
       </c>
@@ -5097,7 +5640,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>234</v>
       </c>
@@ -5114,7 +5657,7 @@
         <v>166.691</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>231</v>
       </c>
@@ -5131,7 +5674,7 @@
         <v>44.29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>278</v>
       </c>
@@ -5148,7 +5691,7 @@
         <v>160.28</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>236</v>
       </c>
@@ -5165,7 +5708,7 @@
         <v>127.05</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>268</v>
       </c>
@@ -5182,7 +5725,7 @@
         <v>159.01</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>238</v>
       </c>
@@ -5199,7 +5742,7 @@
         <v>90.024000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>280</v>
       </c>
@@ -5216,7 +5759,7 @@
         <v>75.989000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>239</v>
       </c>
@@ -5233,7 +5776,7 @@
         <v>166.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>240</v>
       </c>
@@ -5250,7 +5793,7 @@
         <v>166.58</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>243</v>
       </c>
@@ -5267,7 +5810,7 @@
         <v>146.18</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>245</v>
       </c>
@@ -5284,7 +5827,7 @@
         <v>141.38999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>242</v>
       </c>
@@ -5301,7 +5844,7 @@
         <v>171.21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>246</v>
       </c>
@@ -5318,7 +5861,7 @@
         <v>-61.6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>248</v>
       </c>
@@ -5335,7 +5878,7 @@
         <v>43.061999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>284</v>
       </c>
@@ -5352,7 +5895,7 @@
         <v>-170.06819820000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>253</v>
       </c>
@@ -5369,7 +5912,7 @@
         <v>170.358</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>249</v>
       </c>
@@ -5386,7 +5929,7 @@
         <v>-148.99199999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>250</v>
       </c>
@@ -5403,7 +5946,7 @@
         <v>-71.489833300000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>251</v>
       </c>
@@ -5420,7 +5963,7 @@
         <v>-126.17700000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>254</v>
       </c>
@@ -5437,7 +5980,7 @@
         <v>-115.84099999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>292</v>
       </c>
@@ -5454,7 +5997,7 @@
         <v>-97.545000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>293</v>
       </c>
@@ -5471,7 +6014,7 @@
         <v>-171.477</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>255</v>
       </c>
@@ -5488,7 +6031,7 @@
         <v>-68.796999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>261</v>
       </c>
@@ -5505,7 +6048,7 @@
         <v>177.82900000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>259</v>
       </c>
@@ -5522,7 +6065,7 @@
         <v>168.39400000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>301</v>
       </c>
@@ -5542,7 +6085,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>258</v>
       </c>
@@ -5559,7 +6102,7 @@
         <v>166.92099999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>257</v>
       </c>

--- a/aws_coords_2017.xlsx
+++ b/aws_coords_2017.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Desktop\Antarctica-Weather-Station-Intercative-Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katezellmer/Documents/Geo 575/Antarctica Weather Station/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="465" windowWidth="23145" windowHeight="16260" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="5660" yWindow="460" windowWidth="23140" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017_all" sheetId="1" r:id="rId1"/>
     <sheet name="q1h_aws" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1332,13 +1336,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.875" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,7 +3403,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>585</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>572</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>589</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>588</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>590</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>440</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>676</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>623</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>394</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>344</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>633</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>667</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>625</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>632</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>610</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>627</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>679</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>635</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>636</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>629</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>390</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>638</v>
       </c>
@@ -3839,7 +3843,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>607</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>401</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>624</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>608</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>670</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>397</v>
       </c>
@@ -3959,7 +3963,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>680</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>673</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>189</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>665</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>666</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>630</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>600</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>669</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>606</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>674</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>265</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>441</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>671</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>640</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>639</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>634</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>628</v>
       </c>
@@ -4299,7 +4303,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>668</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>404</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>672</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>675</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>389</v>
       </c>
@@ -4399,7 +4403,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>240</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>678</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>681</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>677</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>619</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>648</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>349</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>132</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>218</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>376</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>584</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>576</v>
       </c>
@@ -4673,13 +4677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="2"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6122,4 +6124,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/aws_coords_2017.xlsx
+++ b/aws_coords_2017.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katezellmer/Documents/Geo 575/Antarctica Weather Station/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Desktop\Antarctica-Weather-Station-Intercative-Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="5660" yWindow="460" windowWidth="23140" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10485" yWindow="465" windowWidth="23145" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2017_all" sheetId="1" r:id="rId1"/>
     <sheet name="q1h_aws" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1336,13 +1332,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,7 +3399,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>585</v>
       </c>
@@ -3423,7 +3419,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>572</v>
       </c>
@@ -3443,7 +3439,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>589</v>
       </c>
@@ -3463,7 +3459,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>588</v>
       </c>
@@ -3483,7 +3479,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>590</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>440</v>
       </c>
@@ -3523,7 +3519,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>676</v>
       </c>
@@ -3543,7 +3539,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>623</v>
       </c>
@@ -3563,7 +3559,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>394</v>
       </c>
@@ -3583,7 +3579,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>344</v>
       </c>
@@ -3603,7 +3599,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>633</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>667</v>
       </c>
@@ -3643,7 +3639,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>625</v>
       </c>
@@ -3663,7 +3659,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>632</v>
       </c>
@@ -3683,7 +3679,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>610</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>627</v>
       </c>
@@ -3723,7 +3719,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>679</v>
       </c>
@@ -3743,7 +3739,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>635</v>
       </c>
@@ -3763,7 +3759,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>636</v>
       </c>
@@ -3783,7 +3779,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>629</v>
       </c>
@@ -3803,7 +3799,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>390</v>
       </c>
@@ -3823,7 +3819,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>638</v>
       </c>
@@ -3843,7 +3839,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>607</v>
       </c>
@@ -3863,7 +3859,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>401</v>
       </c>
@@ -3883,7 +3879,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>624</v>
       </c>
@@ -3903,7 +3899,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>608</v>
       </c>
@@ -3923,7 +3919,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>670</v>
       </c>
@@ -3943,7 +3939,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>397</v>
       </c>
@@ -3963,7 +3959,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>680</v>
       </c>
@@ -3983,7 +3979,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>673</v>
       </c>
@@ -4003,7 +3999,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>189</v>
       </c>
@@ -4023,7 +4019,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>665</v>
       </c>
@@ -4043,7 +4039,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>666</v>
       </c>
@@ -4063,7 +4059,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>630</v>
       </c>
@@ -4083,7 +4079,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>600</v>
       </c>
@@ -4103,7 +4099,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>669</v>
       </c>
@@ -4123,7 +4119,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>606</v>
       </c>
@@ -4143,7 +4139,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>674</v>
       </c>
@@ -4163,7 +4159,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>265</v>
       </c>
@@ -4183,7 +4179,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>441</v>
       </c>
@@ -4203,7 +4199,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>671</v>
       </c>
@@ -4223,7 +4219,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>640</v>
       </c>
@@ -4243,7 +4239,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>639</v>
       </c>
@@ -4263,7 +4259,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>634</v>
       </c>
@@ -4283,7 +4279,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>628</v>
       </c>
@@ -4303,7 +4299,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>668</v>
       </c>
@@ -4323,7 +4319,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>404</v>
       </c>
@@ -4343,7 +4339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>672</v>
       </c>
@@ -4363,7 +4359,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>675</v>
       </c>
@@ -4383,7 +4379,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>389</v>
       </c>
@@ -4403,7 +4399,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>240</v>
       </c>
@@ -4423,7 +4419,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>678</v>
       </c>
@@ -4443,7 +4439,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>681</v>
       </c>
@@ -4463,7 +4459,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>677</v>
       </c>
@@ -4483,7 +4479,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>619</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>648</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>349</v>
       </c>
@@ -4543,7 +4539,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>132</v>
       </c>
@@ -4563,7 +4559,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>218</v>
       </c>
@@ -4583,7 +4579,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>376</v>
       </c>
@@ -4603,7 +4599,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>584</v>
       </c>
@@ -4623,7 +4619,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>576</v>
       </c>
@@ -4677,11 +4673,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6124,16 +6122,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>